--- a/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_3/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>71.144457146581</v>
+        <v>71.14445714658117</v>
       </c>
       <c r="H2" t="n">
-        <v>209.8557064818585</v>
+        <v>209.8557064818586</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>44.06973964597904</v>
+        <v>44.06973964597921</v>
       </c>
       <c r="H3" t="n">
-        <v>195.0406279058798</v>
+        <v>195.0406279058799</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>17.74184063981349</v>
+        <v>17.74184063981371</v>
       </c>
       <c r="H4" t="n">
-        <v>197.4318986266145</v>
+        <v>197.4318986266146</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-30.90222945293275</v>
+        <v>-30.90222945293263</v>
       </c>
       <c r="H5" t="n">
         <v>179.3405404462929</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>70.41392359687315</v>
+        <v>70.41392359687323</v>
       </c>
       <c r="H6" t="n">
         <v>151.0001277947893</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>81.7004643948882</v>
+        <v>81.70046439488846</v>
       </c>
       <c r="H7" t="n">
-        <v>171.973445381293</v>
+        <v>171.9734453812929</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>111.3223923181564</v>
+        <v>111.3223923181566</v>
       </c>
       <c r="H8" t="n">
         <v>144.2298162182322</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>81.45950888253583</v>
+        <v>81.45950888253604</v>
       </c>
       <c r="H9" t="n">
-        <v>162.6531717928129</v>
+        <v>162.653171792813</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>110.0837772270869</v>
+        <v>110.0837772270871</v>
       </c>
       <c r="H10" t="n">
-        <v>126.3853927547433</v>
+        <v>126.3853927547434</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>49.44463476577759</v>
+        <v>49.4446347657777</v>
       </c>
       <c r="H11" t="n">
-        <v>145.3397034674402</v>
+        <v>145.3397034674401</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>86.9486526171257</v>
+        <v>86.94865261712579</v>
       </c>
       <c r="H12" t="n">
-        <v>114.4516495925338</v>
+        <v>114.4516495925337</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>149.4686511991654</v>
+        <v>149.4686511991657</v>
       </c>
       <c r="H13" t="n">
         <v>119.260722887607</v>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>149.5996444446072</v>
+        <v>149.5996444446074</v>
       </c>
       <c r="H14" t="n">
-        <v>111.769444739237</v>
+        <v>111.7694447392371</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>130.1532296803858</v>
+        <v>130.153229680386</v>
       </c>
       <c r="H15" t="n">
-        <v>109.038722298938</v>
+        <v>109.0387222989382</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>110.4411002369525</v>
+        <v>110.4411002369527</v>
       </c>
       <c r="H16" t="n">
-        <v>106.3722698640393</v>
+        <v>106.3722698640394</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>90.1502490258021</v>
+        <v>90.15024902580217</v>
       </c>
       <c r="H17" t="n">
-        <v>103.9948742025646</v>
+        <v>103.9948742025645</v>
       </c>
     </row>
     <row r="18">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>76.83985069984516</v>
+        <v>76.83985069984524</v>
       </c>
       <c r="H18" t="n">
         <v>111.4703748017805</v>
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>149.4926579337811</v>
+        <v>149.4926579337813</v>
       </c>
       <c r="H19" t="n">
-        <v>109.9113318081987</v>
+        <v>109.9113318081988</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>149.6622710864046</v>
+        <v>149.6622710864048</v>
       </c>
       <c r="H20" t="n">
-        <v>113.4721174037812</v>
+        <v>113.4721174037813</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>129.9432354134134</v>
+        <v>129.9432354134135</v>
       </c>
       <c r="H21" t="n">
-        <v>110.8468183533637</v>
+        <v>110.8468183533639</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>98.85628925188664</v>
+        <v>98.85628925188679</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6764722764114</v>
+        <v>118.6764722764116</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>90.28107418053162</v>
+        <v>90.2810741805317</v>
       </c>
       <c r="H23" t="n">
-        <v>105.8015821964776</v>
+        <v>105.8015821964775</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>81.99722900241545</v>
+        <v>81.99722900241518</v>
       </c>
       <c r="H24" t="n">
-        <v>122.8732715216947</v>
+        <v>122.8732715216943</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>60.41845813149935</v>
+        <v>60.41845813149943</v>
       </c>
       <c r="H25" t="n">
-        <v>186.2623207715475</v>
+        <v>186.2623207715477</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>81.70594890892633</v>
+        <v>81.70594890892656</v>
       </c>
       <c r="H26" t="n">
-        <v>171.0024513646146</v>
+        <v>171.0024513646147</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>90.95409760111748</v>
+        <v>90.95409760111767</v>
       </c>
       <c r="H29" t="n">
-        <v>132.0087533838443</v>
+        <v>132.0087533838444</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>120.294273044236</v>
+        <v>120.2942730442362</v>
       </c>
       <c r="H30" t="n">
-        <v>110.1326501070652</v>
+        <v>110.1326501070653</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>103.2847337996243</v>
+        <v>103.2847337996245</v>
       </c>
       <c r="H31" t="n">
-        <v>166.9105786636009</v>
+        <v>166.910578663601</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>104.9117633592221</v>
+        <v>104.9117633592217</v>
       </c>
       <c r="H33" t="n">
-        <v>138.3714915027066</v>
+        <v>138.3714915027064</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>104.4173667735152</v>
+        <v>104.4173667735149</v>
       </c>
       <c r="H34" t="n">
-        <v>110.4187650413885</v>
+        <v>110.4187650413882</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>139.5444853113494</v>
+        <v>139.5444853113496</v>
       </c>
       <c r="H36" t="n">
-        <v>113.1084445368579</v>
+        <v>113.108444536858</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>105.2758144387347</v>
+        <v>105.2758144387344</v>
       </c>
       <c r="H37" t="n">
-        <v>118.0049916758753</v>
+        <v>118.004991675875</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>92.46918999229641</v>
+        <v>92.46918999229655</v>
       </c>
       <c r="H39" t="n">
-        <v>168.4443508443544</v>
+        <v>168.4443508443546</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>115.1946694781034</v>
+        <v>115.1946694781033</v>
       </c>
       <c r="H40" t="n">
-        <v>105.0511818996089</v>
+        <v>105.0511818996087</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>54.6417827005853</v>
+        <v>54.64178270058537</v>
       </c>
       <c r="H42" t="n">
-        <v>173.4590624887939</v>
+        <v>173.4590624887941</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>102.0507483332583</v>
+        <v>102.050748333258</v>
       </c>
       <c r="H44" t="n">
-        <v>106.9319818412838</v>
+        <v>106.9319818412835</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>117.2864594688626</v>
+        <v>117.2864594688627</v>
       </c>
       <c r="H47" t="n">
-        <v>107.6786125957779</v>
+        <v>107.678612595778</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>139.1226072578258</v>
+        <v>139.122607257826</v>
       </c>
       <c r="H49" t="n">
-        <v>125.4837018209844</v>
+        <v>125.4837018209846</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>105.2405646355821</v>
+        <v>105.2405646355818</v>
       </c>
       <c r="H50" t="n">
-        <v>110.7569565964145</v>
+        <v>110.7569565964142</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>88.31257067674532</v>
+        <v>88.31257067674552</v>
       </c>
       <c r="H51" t="n">
-        <v>137.3872131887752</v>
+        <v>137.3872131887753</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>10.42568033607581</v>
+        <v>10.42568033607558</v>
       </c>
       <c r="H52" t="n">
-        <v>166.9321428148921</v>
+        <v>166.932142814892</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>88.32202670779974</v>
+        <v>88.32202670779957</v>
       </c>
       <c r="H53" t="n">
-        <v>172.9947470084664</v>
+        <v>172.9947470084661</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>10.00843116404263</v>
+        <v>10.00843116404284</v>
       </c>
       <c r="H54" t="n">
-        <v>168.3875800119178</v>
+        <v>168.3875800119179</v>
       </c>
     </row>
     <row r="55">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>117.4494441649627</v>
+        <v>117.4494441649625</v>
       </c>
       <c r="H57" t="n">
-        <v>126.5642154786438</v>
+        <v>126.5642154786437</v>
       </c>
     </row>
     <row r="58">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>149.0645860679121</v>
+        <v>149.0645860679119</v>
       </c>
       <c r="H58" t="n">
-        <v>101.2641939613419</v>
+        <v>101.2641939613418</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>135.666415499985</v>
+        <v>135.6664154999847</v>
       </c>
       <c r="H59" t="n">
-        <v>98.14139261219253</v>
+        <v>98.14139261219233</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>115.908083113957</v>
+        <v>115.9080831139572</v>
       </c>
       <c r="H60" t="n">
-        <v>96.69336197624848</v>
+        <v>96.69336197624857</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>101.0081090240264</v>
+        <v>101.0081090240262</v>
       </c>
       <c r="H63" t="n">
-        <v>102.0422002543331</v>
+        <v>102.042200254333</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>155.5193451201854</v>
+        <v>155.5193451201852</v>
       </c>
       <c r="H64" t="n">
-        <v>73.06701480265268</v>
+        <v>73.06701480265254</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>135.7986136629781</v>
+        <v>135.7986136629777</v>
       </c>
       <c r="H65" t="n">
-        <v>70.78997432730202</v>
+        <v>70.78997432730172</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>116.0777749057981</v>
+        <v>116.0777749057983</v>
       </c>
       <c r="H66" t="n">
-        <v>68.52064755524563</v>
+        <v>68.52064755524577</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>141.4066221724472</v>
+        <v>141.406622172447</v>
       </c>
       <c r="H69" t="n">
-        <v>74.05638120027692</v>
+        <v>74.05638120027677</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>155.5948856959113</v>
+        <v>155.5948856959112</v>
       </c>
       <c r="H70" t="n">
-        <v>75.53149093530735</v>
+        <v>75.53149093530722</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>135.9092421481381</v>
+        <v>135.9092421481378</v>
       </c>
       <c r="H71" t="n">
-        <v>73.34417263370494</v>
+        <v>73.34417263370467</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>116.3339786315448</v>
+        <v>116.333978631545</v>
       </c>
       <c r="H72" t="n">
-        <v>71.05373927861524</v>
+        <v>71.05373927861538</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>125.7546209877091</v>
+        <v>125.7546209877094</v>
       </c>
       <c r="H74" t="n">
-        <v>73.30960765941956</v>
+        <v>73.30960765941981</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>105.8710201396898</v>
+        <v>105.87102013969</v>
       </c>
       <c r="H75" t="n">
-        <v>74.9517745351729</v>
+        <v>74.95177453517303</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>145.9026638883212</v>
+        <v>145.9026638883209</v>
       </c>
       <c r="H76" t="n">
-        <v>81.33305973840986</v>
+        <v>81.33305973840953</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>115.5650180895467</v>
+        <v>115.5650180895471</v>
       </c>
       <c r="H77" t="n">
-        <v>80.4638542939533</v>
+        <v>80.46385429395355</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>125.0648316253214</v>
+        <v>125.064831625321</v>
       </c>
       <c r="H78" t="n">
-        <v>128.2883047472342</v>
+        <v>128.288304747234</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>102.8186210902411</v>
+        <v>102.818621090241</v>
       </c>
       <c r="H79" t="n">
-        <v>131.3326305447859</v>
+        <v>131.3326305447858</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>125.6697796699704</v>
+        <v>125.6697796699708</v>
       </c>
       <c r="H80" t="n">
-        <v>112.9557557894124</v>
+        <v>112.9557557894126</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>120.6918559433327</v>
+        <v>120.6918559433326</v>
       </c>
       <c r="H81" t="n">
-        <v>104.7434822819956</v>
+        <v>104.7434822819955</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>103.9175788063524</v>
+        <v>103.9175788063525</v>
       </c>
       <c r="H82" t="n">
-        <v>76.76676001855466</v>
+        <v>76.76676001855481</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>106.0760168883417</v>
+        <v>106.0760168883418</v>
       </c>
       <c r="H83" t="n">
-        <v>107.4719300811856</v>
+        <v>107.4719300811857</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>27.32808198356911</v>
+        <v>27.3280819835687</v>
       </c>
       <c r="H85" t="n">
-        <v>152.9939358977489</v>
+        <v>152.9939358977487</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>28.46531079456413</v>
+        <v>28.46531079456429</v>
       </c>
       <c r="H86" t="n">
-        <v>161.9796655105169</v>
+        <v>161.9796655105172</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>133.2055936526257</v>
+        <v>133.2055936526254</v>
       </c>
       <c r="H88" t="n">
-        <v>82.49430708110583</v>
+        <v>82.49430708110559</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>93.52792204192741</v>
+        <v>93.52792204192755</v>
       </c>
       <c r="H90" t="n">
-        <v>98.81607895563391</v>
+        <v>98.81607895563405</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>135.450772107638</v>
+        <v>135.4507721076377</v>
       </c>
       <c r="H91" t="n">
-        <v>94.72029879895027</v>
+        <v>94.72029879894998</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>116.2670397893395</v>
+        <v>116.2670397893397</v>
       </c>
       <c r="H92" t="n">
-        <v>72.22752493315495</v>
+        <v>72.22752493315508</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>117.7891707215241</v>
+        <v>117.7891707215239</v>
       </c>
       <c r="H93" t="n">
-        <v>81.44204616338645</v>
+        <v>81.44204616338634</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>109.7349741641335</v>
+        <v>109.7349741641334</v>
       </c>
       <c r="H94" t="n">
-        <v>65.7372888440549</v>
+        <v>65.73728884405475</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>145.9036444082357</v>
+        <v>145.9036444082354</v>
       </c>
       <c r="H95" t="n">
-        <v>69.81661798471991</v>
+        <v>69.81661798471953</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>126.2965401395611</v>
+        <v>126.2965401395615</v>
       </c>
       <c r="H96" t="n">
-        <v>68.77199130510689</v>
+        <v>68.77199130510718</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>95.80178685429171</v>
+        <v>95.80178685429185</v>
       </c>
       <c r="H97" t="n">
-        <v>80.47343998311125</v>
+        <v>80.47343998311142</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>142.382426769225</v>
+        <v>142.3824267692247</v>
       </c>
       <c r="H99" t="n">
-        <v>70.04172389368713</v>
+        <v>70.04172389368675</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>125.5568490307928</v>
+        <v>125.5568490307932</v>
       </c>
       <c r="H100" t="n">
-        <v>66.75576533332911</v>
+        <v>66.75576533332942</v>
       </c>
     </row>
     <row r="101">
